--- a/spliced/walkingToRunning/2023-03-24_10-04-36/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-04-36/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-15.53036594390869</v>
+        <v>-4.746825218200684</v>
       </c>
       <c r="D2" t="n">
-        <v>-35.93496704101562</v>
+        <v>-21.48864555358887</v>
       </c>
       <c r="E2" t="n">
-        <v>9.646455764770508</v>
+        <v>-7.668013572692871</v>
       </c>
       <c r="F2" t="n">
-        <v>4.670226090791241</v>
+        <v>1.236815226788552</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.091667162661444</v>
+        <v>0.1414764750477494</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.041793617981188</v>
+        <v>-1.8235920880804</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8.549526214599609</v>
+        <v>9.662276268005373</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.356056213378906</v>
+        <v>-37.98822784423828</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.340849876403809</v>
+        <v>-8.327095985412598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8640256433297839</v>
+        <v>0.1625524869817767</v>
       </c>
       <c r="G3" t="n">
-        <v>4.650747886556637</v>
+        <v>-0.4422002719431526</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.559826216160883</v>
+        <v>-1.004146238825968</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2473421096801757</v>
+        <v>1.045047998428345</v>
       </c>
       <c r="D4" t="n">
-        <v>-19.03062438964844</v>
+        <v>-10.61942100524902</v>
       </c>
       <c r="E4" t="n">
-        <v>14.19175815582275</v>
+        <v>2.765533447265625</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.644820244896485</v>
+        <v>-0.740915227015286</v>
       </c>
       <c r="G4" t="n">
-        <v>1.258370885785854</v>
+        <v>-0.7551234747400304</v>
       </c>
       <c r="H4" t="n">
-        <v>4.646750097243193</v>
+        <v>0.4171670004232076</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-66.04409027099609</v>
+        <v>5.131261825561523</v>
       </c>
       <c r="D5" t="n">
-        <v>-40.48963928222656</v>
+        <v>-28.12363815307617</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.51393508911133</v>
+        <v>22.79096603393555</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.00715031529102</v>
+        <v>-0.2266252960590348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9142340319046287</v>
+        <v>0.2213748296759771</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1285482684508406</v>
+        <v>0.3229828062436459</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.92905426025391</v>
+        <v>-30.11330032348633</v>
       </c>
       <c r="D6" t="n">
-        <v>-11.65623378753662</v>
+        <v>-17.59586143493652</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.03446578979492</v>
+        <v>-19.26617050170898</v>
       </c>
       <c r="F6" t="n">
-        <v>3.070978374670706</v>
+        <v>1.314678312926899</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.068573569619734</v>
+        <v>0.2296500253361486</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.954386662173812</v>
+        <v>-2.454690778492302</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.481335639953612</v>
+        <v>1.400394916534424</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.4488410949707</v>
+        <v>-9.052268028259276</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.56464290618896</v>
+        <v>-1.365690350532532</v>
       </c>
       <c r="F7" t="n">
-        <v>3.232810453863329</v>
+        <v>2.428599177606864</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.969135909680511</v>
+        <v>-2.602694208258827</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.358391224153779</v>
+        <v>-1.646401987960016</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-8.953556060791016</v>
+        <v>29.48022842407227</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.6326904296875</v>
+        <v>-27.68916893005371</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.61329460144043</v>
+        <v>-8.951043128967285</v>
       </c>
       <c r="F8" t="n">
-        <v>4.146585134480858</v>
+        <v>-6.127065071206991</v>
       </c>
       <c r="G8" t="n">
-        <v>4.603992654787663</v>
+        <v>-1.783086014899204</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.694319920823923</v>
+        <v>3.508786747787188</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.155851364135742</v>
+        <v>20.90522193908692</v>
       </c>
       <c r="D9" t="n">
-        <v>1.412843227386475</v>
+        <v>-18.83166885375977</v>
       </c>
       <c r="E9" t="n">
-        <v>9.780807495117188</v>
+        <v>3.978492736816406</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.67855012890519</v>
+        <v>-8.945596145478319</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.006855047301741</v>
+        <v>-0.7774270279517974</v>
       </c>
       <c r="H9" t="n">
-        <v>4.836543642132488</v>
+        <v>0.9836971909794454</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.592353820800781</v>
+        <v>6.43248987197876</v>
       </c>
       <c r="D10" t="n">
-        <v>-28.32637023925781</v>
+        <v>-11.59229469299316</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.945913314819336</v>
+        <v>-0.6353058815002441</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.105620122113728</v>
+        <v>-0.7768943598925588</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1927078646540217</v>
+        <v>7.095907495511296</v>
       </c>
       <c r="H10" t="n">
-        <v>5.513353426724837</v>
+        <v>1.043390788779353</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-48.75472259521485</v>
+        <v>3.05394172668457</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.545803546905518</v>
+        <v>-49.75492095947266</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.63641929626465</v>
+        <v>13.27557945251465</v>
       </c>
       <c r="F11" t="n">
-        <v>4.037716316071557</v>
+        <v>3.791030067679126</v>
       </c>
       <c r="G11" t="n">
-        <v>6.551475903845644</v>
+        <v>0.2994813682227342</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.912516972876529</v>
+        <v>0.2082552271494167</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.65710067749024</v>
+        <v>-3.964067220687866</v>
       </c>
       <c r="D12" t="n">
-        <v>-36.34333038330078</v>
+        <v>-5.915932655334473</v>
       </c>
       <c r="E12" t="n">
-        <v>23.02276992797852</v>
+        <v>-9.63399600982666</v>
       </c>
       <c r="F12" t="n">
-        <v>2.804468214906632</v>
+        <v>9.398914166633652</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.66588149165471</v>
+        <v>5.85367529281717</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3203558021823608</v>
+        <v>1.256292052073589</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.25471115112305</v>
+        <v>-17.45916557312012</v>
       </c>
       <c r="D13" t="n">
-        <v>-67.65708923339844</v>
+        <v>-25.58492851257324</v>
       </c>
       <c r="E13" t="n">
-        <v>61.02800750732422</v>
+        <v>-11.17863464355469</v>
       </c>
       <c r="F13" t="n">
-        <v>5.302202979460453</v>
+        <v>2.736446717322321</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.605446433389432</v>
+        <v>4.548278085443381</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.056325257219221</v>
+        <v>1.452632268533013</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-6.31251859664917</v>
+        <v>-3.193105697631836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8578753471374512</v>
+        <v>-11.61043167114258</v>
       </c>
       <c r="E14" t="n">
-        <v>2.234546184539795</v>
+        <v>9.587863922119141</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4646995685599808</v>
+        <v>-4.778863546864109</v>
       </c>
       <c r="G14" t="n">
-        <v>2.818570803332821</v>
+        <v>2.982931879182525</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.798724206078129</v>
+        <v>1.427496227997028</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.11783409118652</v>
+        <v>-3.173403739929199</v>
       </c>
       <c r="D15" t="n">
-        <v>-18.68854331970215</v>
+        <v>-4.077390670776367</v>
       </c>
       <c r="E15" t="n">
-        <v>13.24610137939453</v>
+        <v>2.228257656097412</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.216733415592599</v>
+        <v>-5.840554707887152</v>
       </c>
       <c r="G15" t="n">
-        <v>2.257024671857711</v>
+        <v>8.552980871390053</v>
       </c>
       <c r="H15" t="n">
-        <v>2.481046343481329</v>
+        <v>0.4491637055052786</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-28.9881706237793</v>
+        <v>-78.23867034912109</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.50347137451172</v>
+        <v>-53.79793548583984</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.18040466308594</v>
+        <v>-33.76652908325195</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.183710110898026</v>
+        <v>-1.987136993976585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9670352584478963</v>
+        <v>6.254284772849164</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.899687969131927</v>
+        <v>0.0975735527000729</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>64.36997985839844</v>
+        <v>4.821199893951416</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0689287185668945</v>
+        <v>-2.601359367370605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3596548438072204</v>
+        <v>-5.058528423309326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2213500382884126</v>
+        <v>5.379759021152736</v>
       </c>
       <c r="G17" t="n">
-        <v>12.56045694066983</v>
+        <v>0.9356099742137876</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.443670114144594</v>
+        <v>0.3650748662601239</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-8.175327301025391</v>
+        <v>-9.180764198303224</v>
       </c>
       <c r="D18" t="n">
-        <v>-39.36262130737305</v>
+        <v>-23.62848663330078</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.43169212341309</v>
+        <v>-4.022332191467285</v>
       </c>
       <c r="F18" t="n">
-        <v>3.057937742069067</v>
+        <v>7.268190617395588</v>
       </c>
       <c r="G18" t="n">
-        <v>2.035143078557713</v>
+        <v>2.87724845140975</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.283037379877456</v>
+        <v>-0.6388733892251259</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.986769676208496</v>
+        <v>1.521630764007568</v>
       </c>
       <c r="D19" t="n">
-        <v>-53.85846328735352</v>
+        <v>-8.447349548339844</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.67431640625</v>
+        <v>13.54604339599609</v>
       </c>
       <c r="F19" t="n">
-        <v>1.674169801323628</v>
+        <v>-1.160767073268145</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.228973205515869</v>
+        <v>1.634010728621313</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.825583894521211</v>
+        <v>-0.1062023623889485</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-4.600968360900879</v>
+        <v>16.57039260864258</v>
       </c>
       <c r="D20" t="n">
-        <v>5.562458992004395</v>
+        <v>-22.10472106933594</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.866251468658448</v>
+        <v>21.93498611450196</v>
       </c>
       <c r="F20" t="n">
-        <v>1.125470403803903</v>
+        <v>-4.282147233849325</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.715961506824572</v>
+        <v>2.761744960254463</v>
       </c>
       <c r="H20" t="n">
-        <v>0.163591752778643</v>
+        <v>3.233038336433305</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2.178864002227783</v>
+        <v>-78.08035278320312</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.016260147094728</v>
+        <v>-46.46374893188477</v>
       </c>
       <c r="E21" t="n">
-        <v>3.997007369995117</v>
+        <v>-22.17394256591797</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.817326214139903</v>
+        <v>-2.985469795220721</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.043612650490731</v>
+        <v>12.98016068161699</v>
       </c>
       <c r="H21" t="n">
-        <v>3.705052798946995</v>
+        <v>-0.2386761236664393</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.79047203063965</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.283020973205566</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-7.190555095672607</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1446846399875339</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-8.862621700526844</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6794372058862079</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.819984912872314</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-18.76873397827148</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-7.554898738861084</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.43086243307355</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.569769633526841</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2679488501011921</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5.317728996276856</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.513343572616577</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.32539701461792</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.647490507719652</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.485880149121367</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8528425255358673</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5.113605499267578</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-16.18594360351562</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.00972175598145</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-5.678511316413173</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.6430025874384664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.429980419329525</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10.6145133972168</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-29.43916702270508</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-53.48576354980469</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.9913829153045866</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14.39225333415911</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.904873143758213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.689743518829346</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.009637832641602</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.467369556427002</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.34357805300924</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-3.072673494452783</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.8158495126181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-15.53036594390869</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-35.93496704101562</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.646455764770508</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.670226090791241</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.091667162661444</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.041793617981188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.549526214599609</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.356056213378906</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.340849876403809</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8640256433297839</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.650747886556637</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.559826216160883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2473421096801757</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-19.03062438964844</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.19175815582275</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4.644820244896485</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.258370885785854</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.646750097243193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-66.04409027099609</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-40.48963928222656</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-45.51393508911133</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.00715031529102</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9142340319046287</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.1285482684508406</v>
       </c>
     </row>
   </sheetData>
